--- a/20_営業/12_OIC共通/TE030/T_TE030_CCD_016_Import用RESTAPI起動.xlsx
+++ b/20_営業/12_OIC共通/TE030/T_TE030_CCD_016_Import用RESTAPI起動.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19501～19600\E_本稼動_19531_売掛管理取込長時間実行\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19801～19900\E_本稼動_19878【会計】502bad gatewayエラー\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="17985" windowHeight="90"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="17985" windowHeight="90"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,9 @@
     <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)_20230220" sheetId="19" r:id="rId15"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)_20230929" sheetId="22" r:id="rId16"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)_20230501" sheetId="17" r:id="rId17"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)_20230727" sheetId="21" r:id="rId18"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)_20240401" sheetId="23" r:id="rId17"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)_20230501" sheetId="17" r:id="rId18"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)_20230727" sheetId="21" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -41,13 +42,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ4)_20230220'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ5)_20230929'!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ5)_20240401'!$A$1:$I$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ6)_20230501'!$A$1:$I$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'テスト仕様_テスト結果(テスト・シナリオ6)_20230727'!$A$1:$I$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'テスト仕様_テスト結果(テスト・シナリオ6)_20230501'!$A$1:$I$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'テスト仕様_テスト結果(テスト・シナリオ6)_20230727'!$A$1:$I$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="486">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -3636,94 +3638,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">以下、API名のエラーメッセージ（ID：CCDE0005）がログ出力されること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>API名："非同期処理チェックAPI"</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>以下、API名、HTTPステータスのエラーメッセージ（ID：CCDE0003）がログ出力されること
-API名："</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"
-HTTＰステータス：
-　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.HTTPステータス</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6-4-2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3741,168 +3655,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3番目の非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のジョブ階層チェックAPIの戻り値が以下になる状態にする。
-HTTPステータスコードの先頭1桁目≠2(正常)</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3番目の非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のジョブ階層チェックAPIの戻り値が以下になる状態にする。
-リターンコード≠0(正常)</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>バンメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>以下、API名、リターンコード、メッセージ、エラー詳細のエラーメッセージ（ID：CCDE0002）がログ出力されること
-API名："</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"
-リターンコード：
-　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.リターンコード
-メッセージ：
-　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.メッセージ
-リターンコード：
-　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>エラー詳細</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6-5-2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3975,94 +3727,6 @@
     <t>細沼</t>
     <rPh sb="0" eb="2">
       <t>ホソヌマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3番目の非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の再実施回数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3回目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で実行中ステータスを0にする</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>バンメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3番目の非同期処理チェックAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の再実施回数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4回目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で実行中ステータスを0にする</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>バンメ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4099,44 +3763,6 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>ジョブ階層チェックAPI.実行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">が非同期処理チェックAPIの待機ループ完了後、10秒待機後に再実行されること
-</t>
-    </r>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>カンリョウゴ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>タイキゴ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4260,10 +3886,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5-7-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>実行結果出力API.実施2回目の実行結果出力APIの戻り値が以下になる状態にする。
 HTTPステータスコードの先頭1桁目≠2(正常)</t>
     <rPh sb="26" eb="27">
@@ -4294,74 +3916,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>実行結果出力API.実施1回目の実行結果出力APIの戻り値が以下になる状態にする。
-HTTPステータスコードの先頭1桁目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2(正常)</t>
-    </r>
-    <rPh sb="26" eb="27">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>実行結果出力API.実施1回目の実行結果出力APIの戻り値が以下になる状態にする。
-HTTPステータスコードの先頭1桁目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>＝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2(正常)
-リターンコード=0(正常)</t>
-    </r>
-    <rPh sb="63" eb="65">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>実行結果出力API.実施2回目の実行結果出力APIの戻り値が以下になる状態にする。
 HTTPステータスコードの先頭1桁目＝2(正常)
 リターンコード≠0(正常)</t>
@@ -4371,22 +3925,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5-9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5-9-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>5-9-2</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>【E_本稼動_19531の対応に伴って再テストを実施】</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4395,8 +3937,339 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>【前提条件】
+各テストに用いる初期設定ファイルは、各シナリオフォルダに入っている場合を除き、下記を使用する。
+XXCCD016\XXCCDCOMN.ini</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジョブが最後まで処理が流れる
+→エラーにする想定のタイムアウト時間が長かった。さらに設定値を縮める
+→修正後再実行でステータスが"0"（正常）のまま
+    →リターンコードを保持している変数の変更をしていなかった。ソースの修正を行う
+　　→左記のとおりであることを確認</t>
+    <rPh sb="4" eb="6">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>シュウセイゴ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>サイジッコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラー詳細のメッセージが想定と異なる
+→発生したエラーではなく、エラーのクラス名を設定するようになっていた。
+→修正後左記のとおりであることを確認</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>シュウセイゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力APIが不正なURLに接続する例外を発生させる状態でImport用RESTAPI起動を起動する。
+※テストスタブのrequests実行で指定するURLに、OICと関係ないでたらめなURLを指定して実行する。</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力API.実施2回目の実行結果出力APIが接続タイムアウト例外を発生させる状態にする
+※テストスタブで2回目の時に接続タイムアウトの値を"0.00000001"に設定する</t>
+    <rPh sb="58" eb="60">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RESTの接続タイムアウトでエラー終了するケースのはずが、正常終了した。</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト用に変更する接続タイムアウトの値をさらに短くして"0.00000001"（秒）に変更した</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>細沼</t>
+    <rPh sb="0" eb="2">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行ステータスが"8"（異常）になっていない</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーメッセージの"エラー詳細"として設定しているメッセージが想定と異なる。</t>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続タイムアウトの例外時の処理に、実行ステータスをエラーに設定する処理を追加</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続タイムアウトの例外時のインスタンスに変数名を設定し、インスタンス変数をエラーメッセージに設定するように修正</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_19878 502bad gatewayエラー対応</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>実行結果出力の確認</t>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>実行結果出力の確認【E_本稼動_19531の対応に伴って再テストを実施】</t>
     </r>
     <r>
       <rPr>
@@ -4407,30 +4280,18 @@
         <charset val="128"/>
         <scheme val="major"/>
       </rPr>
-      <t>【E_本稼動_19531の対応に伴って再テストを実施】</t>
+      <t>【E_本稼動_19878の対応に伴って再テストを実施】</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【前提条件】
-各テストに用いる初期設定ファイルは、各シナリオフォルダに入っている場合を除き、下記を使用する。
-XXCCD016\XXCCDCOMN.ini</t>
+    <t>【E_本稼動_19878の対応に伴って再テストを実施】</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>実行結果出力APIが接続タイムアウト例外を発生させる状態でImport用RESTAPI起動を起動する。
-※XXCCDCOMN.iniに設定している「REST_CONN_TIMEOUT_SEC」の値を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"0.00000001"</t>
+      <t>実行結果出力APIの戻り値が以下になる状態でImport用RESTAPI起動を起動する。
+HTTPステータスコード先頭1桁目</t>
     </r>
     <r>
       <rPr>
@@ -4440,8 +4301,28 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>に変更して実施することで、強制的に接続タイムアウトを発生させる</t>
+      <t>=4(クライアントエラー)</t>
     </r>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力APIが接続タイムアウト例外を発生させる状態でImport用RESTAPI起動を起動する。
+※XXCCDCOMN.iniに設定している「REST_CONN_TIMEOUT_SEC」の値を"0.00000001"に変更して実施することで、強制的に接続タイムアウトを発生させる</t>
     <rPh sb="10" eb="12">
       <t>セツゾク</t>
     </rPh>
@@ -4478,6 +4359,196 @@
     <rPh sb="138" eb="140">
       <t>ハッセイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下、API名のエラーメッセージ（ID：CCDE0011）がログ出力されること
+API名：実行結果出力API</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力APIが3回実行されていること</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力APIの戻り値が以下になる状態でImport用RESTAPI起動を起動する。
+1回目：HTTPステータスコード=502(Bad Gateway)
+2回目：HTTPステータスコード=504(Gateway Timeout)
+3回目：HTTPステータスコード=200(正常)</t>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力APIの戻り値が以下になる状態でImport用RESTAPI起動を起動する。
+1回目：HTTPステータスコード=502(Bad Gateway)
+2回目：HTTPステータスコード=502(Bad Gateway)
+3回目：HTTPステータスコード=502(Bad Gateway)</t>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行結果出力APIの戻り値が以下になる状態でImport用RESTAPI起動を起動する。
+1回目：HTTPステータスコード=504(Gateway Timeout)
+2回目：HTTPステータスコード=504(Gateway Timeout)
+3回目：HTTPステータスコード=504(Gateway Timeout)</t>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2回目と3回目の実行までに20秒の間隔があること</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>終了メッセージが表示されない
+→テストスタブの不備に加えて、ソース側もエラー時に正常終了のリターンコードを返す実装になっていた
+→修正後、左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>シュウセイゴ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -4488,308 +4559,146 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>左記のとおりであることを確認</t>
-    <rPh sb="0" eb="2">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ジョブが最後まで処理が流れる
-→エラーにする想定のタイムアウト時間が長かった。さらに設定値を縮める
-→修正後再実行でステータスが"0"（正常）のまま
-    →リターンコードを保持している変数の変更をしていなかった。ソースの修正を行う
-　　→左記のとおりであることを確認</t>
-    <rPh sb="4" eb="6">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>セッテイチ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>チヂ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>シュウセイゴ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>サイジッコウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エラー詳細のメッセージが想定と異なる
-→発生したエラーではなく、エラーのクラス名を設定するようになっていた。
-→修正後左記のとおりであることを確認</t>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>シュウセイゴ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実行結果出力APIが不正なURLに接続する例外を発生させる状態でImport用RESTAPI起動を起動する。
-※テストスタブのrequests実行で指定するURLに、OICと関係ないでたらめなURLを指定して実行する。</t>
-    <rPh sb="0" eb="4">
-      <t>ジッコウケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハッセイ</t>
+    <t xml:space="preserve">ジョブ階層チェックAPI.実行が非同期処理チェックAPIの待機ループ完了後、10秒待機後に再実行されること
+</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
     </rPh>
     <rPh sb="29" eb="31">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実行結果出力API.実施2回目の実行結果出力APIが接続タイムアウト例外を発生させる状態にする
-※テストスタブで2回目の時に接続タイムアウトの値を"0.00000001"に設定する</t>
-    <rPh sb="58" eb="60">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RESTの接続タイムアウトでエラー終了するケースのはずが、正常終了した。</t>
-    <rPh sb="5" eb="7">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>セイジョウシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テスト用に変更する接続タイムアウトの値をさらに短くして"0.00000001"（秒）に変更した</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミジカ</t>
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カンリョウゴ</t>
     </rPh>
     <rPh sb="40" eb="41">
       <t>ビョウ</t>
     </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>細沼</t>
+    <rPh sb="41" eb="44">
+      <t>タイキゴ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3番目の非同期処理チェックAPIの再実施回数3回目で実行中ステータスを0にする</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3番目の非同期処理チェックAPIの再実施回数4回目で実行中ステータスを0にする</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下、API名のエラーメッセージ（ID：CCDE0005）がログ出力されること
+API名："非同期処理チェックAPI"</t>
     <rPh sb="0" eb="2">
-      <t>ホソヌマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実行ステータスが"8"（異常）になっていない</t>
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3番目の非同期処理チェックAPIのジョブ階層チェックAPIの戻り値が以下になる状態にする。
+HTTPステータスコードの先頭1桁目≠2(正常)</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下、API名、HTTPステータスのエラーメッセージ（ID：CCDE0003）がログ出力されること
+API名："非同期処理チェックAPI"
+HTTＰステータス：
+　非同期処理チェックAPI.HTTPステータス</t>
     <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エラーメッセージの"エラー詳細"として設定しているメッセージが想定と異なる。</t>
-    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3番目の非同期処理チェックAPIのジョブ階層チェックAPIの戻り値が以下になる状態にする。
+リターンコード≠0(正常)</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下、API名、リターンコード、メッセージ、エラー詳細のエラーメッセージ（ID：CCDE0002）がログ出力されること
+API名："非同期処理チェックAPI"
+リターンコード：
+　非同期処理チェックAPI.リターンコード
+メッセージ：
+　非同期処理チェックAPI.メッセージ
+リターンコード：
+　非同期処理チェックAPIエラー詳細</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>接続タイムアウトの例外時の処理に、実行ステータスをエラーに設定する処理を追加</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>接続タイムアウトの例外時のインスタンスに変数名を設定し、インスタンス変数をエラーメッセージに設定するように修正</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヘンスウ</t>
+    <rPh sb="52" eb="54">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CCD_016_Import用RESTAPI起動_エビデンス(シナリオ5).xlsx</t>
+  </si>
+  <si>
+    <t>実行結果出力API.実施1回目の実行結果出力APIの戻り値が以下になる状態にする。
+HTTPステータスコードの先頭1桁目=2(正常)</t>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4803,7 +4712,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5013,13 +4922,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5677,7 +5579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6035,15 +5937,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6051,12 +5944,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -7195,6 +7082,731 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="36661725"/>
+          <a:ext cx="7581900" cy="2663190"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="39423975"/>
+          <a:ext cx="7581900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="35852100"/>
+          <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -7915,7 +8527,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -11542,18 +12154,18 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11564,7 +12176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="36661725"/>
+          <a:off x="276225" y="38690550"/>
           <a:ext cx="7581900" cy="2663190"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -11852,18 +12464,18 @@
     </xdr:sp>
     <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11874,7 +12486,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="39423975"/>
+          <a:off x="276225" y="41452800"/>
           <a:ext cx="7581900" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -12165,18 +12777,18 @@
     </xdr:sp>
     <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12187,7 +12799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28575" y="35852100"/>
+          <a:off x="28575" y="37880925"/>
           <a:ext cx="3400425" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -15060,15 +15672,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
@@ -15077,41 +15689,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
@@ -15148,7 +15760,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45202</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -15172,7 +15784,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -15233,7 +15845,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15243,574 +15855,8 @@
     <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
-    <col min="10" max="256" width="8.875" style="27"/>
-    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
-    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
-    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
-    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
-    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
-    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
-    <col min="266" max="512" width="8.875" style="27"/>
-    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
-    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
-    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
-    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
-    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
-    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
-    <col min="522" max="768" width="8.875" style="27"/>
-    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
-    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
-    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
-    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
-    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
-    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
-    <col min="778" max="1024" width="8.875" style="27"/>
-    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
-    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
-    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
-    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
-    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
-    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
-    <col min="1034" max="1280" width="8.875" style="27"/>
-    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
-    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
-    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
-    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
-    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
-    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
-    <col min="1290" max="1536" width="8.875" style="27"/>
-    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
-    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
-    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
-    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
-    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
-    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
-    <col min="1546" max="1792" width="8.875" style="27"/>
-    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
-    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
-    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
-    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
-    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
-    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
-    <col min="1802" max="2048" width="8.875" style="27"/>
-    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
-    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
-    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
-    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
-    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
-    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
-    <col min="2058" max="2304" width="8.875" style="27"/>
-    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
-    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
-    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
-    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
-    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
-    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
-    <col min="2314" max="2560" width="8.875" style="27"/>
-    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
-    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
-    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
-    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
-    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
-    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
-    <col min="2570" max="2816" width="8.875" style="27"/>
-    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
-    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
-    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
-    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
-    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
-    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
-    <col min="2826" max="3072" width="8.875" style="27"/>
-    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
-    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
-    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
-    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
-    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
-    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
-    <col min="3082" max="3328" width="8.875" style="27"/>
-    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
-    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
-    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
-    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
-    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
-    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
-    <col min="3338" max="3584" width="8.875" style="27"/>
-    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
-    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
-    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
-    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
-    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
-    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
-    <col min="3594" max="3840" width="8.875" style="27"/>
-    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
-    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
-    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
-    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
-    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
-    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
-    <col min="3850" max="4096" width="8.875" style="27"/>
-    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
-    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
-    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
-    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
-    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
-    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
-    <col min="4106" max="4352" width="8.875" style="27"/>
-    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
-    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
-    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
-    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
-    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
-    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
-    <col min="4362" max="4608" width="8.875" style="27"/>
-    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
-    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
-    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
-    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
-    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
-    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
-    <col min="4618" max="4864" width="8.875" style="27"/>
-    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
-    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
-    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
-    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
-    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
-    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
-    <col min="4874" max="5120" width="8.875" style="27"/>
-    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
-    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
-    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
-    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
-    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
-    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
-    <col min="5130" max="5376" width="8.875" style="27"/>
-    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
-    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
-    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
-    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
-    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
-    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
-    <col min="5386" max="5632" width="8.875" style="27"/>
-    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
-    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
-    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
-    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
-    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
-    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
-    <col min="5642" max="5888" width="8.875" style="27"/>
-    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
-    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
-    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
-    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
-    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
-    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
-    <col min="5898" max="6144" width="8.875" style="27"/>
-    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
-    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
-    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
-    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
-    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
-    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
-    <col min="6154" max="6400" width="8.875" style="27"/>
-    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
-    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
-    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
-    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
-    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
-    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
-    <col min="6410" max="6656" width="8.875" style="27"/>
-    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
-    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
-    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
-    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
-    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
-    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
-    <col min="6666" max="6912" width="8.875" style="27"/>
-    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
-    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
-    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
-    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
-    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
-    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
-    <col min="6922" max="7168" width="8.875" style="27"/>
-    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
-    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
-    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
-    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
-    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
-    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
-    <col min="7178" max="7424" width="8.875" style="27"/>
-    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
-    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
-    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
-    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
-    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
-    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
-    <col min="7434" max="7680" width="8.875" style="27"/>
-    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
-    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
-    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
-    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
-    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
-    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
-    <col min="7690" max="7936" width="8.875" style="27"/>
-    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
-    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
-    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
-    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
-    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
-    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
-    <col min="7946" max="8192" width="8.875" style="27"/>
-    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
-    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
-    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
-    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
-    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
-    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
-    <col min="8202" max="8448" width="8.875" style="27"/>
-    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
-    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
-    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
-    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
-    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
-    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
-    <col min="8458" max="8704" width="8.875" style="27"/>
-    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
-    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
-    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
-    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
-    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
-    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
-    <col min="8714" max="8960" width="8.875" style="27"/>
-    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
-    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
-    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
-    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
-    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
-    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
-    <col min="8970" max="9216" width="8.875" style="27"/>
-    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
-    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
-    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
-    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
-    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
-    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
-    <col min="9226" max="9472" width="8.875" style="27"/>
-    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
-    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
-    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
-    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
-    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
-    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
-    <col min="9482" max="9728" width="8.875" style="27"/>
-    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
-    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
-    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
-    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
-    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
-    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
-    <col min="9738" max="9984" width="8.875" style="27"/>
-    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
-    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
-    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
-    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
-    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
-    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
-    <col min="9994" max="10240" width="8.875" style="27"/>
-    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
-    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
-    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
-    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
-    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
-    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
-    <col min="10250" max="10496" width="8.875" style="27"/>
-    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
-    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
-    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
-    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
-    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
-    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
-    <col min="10506" max="10752" width="8.875" style="27"/>
-    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
-    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
-    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
-    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
-    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
-    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
-    <col min="10762" max="11008" width="8.875" style="27"/>
-    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
-    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
-    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
-    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
-    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
-    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
-    <col min="11018" max="11264" width="8.875" style="27"/>
-    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
-    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
-    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
-    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
-    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
-    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
-    <col min="11274" max="11520" width="8.875" style="27"/>
-    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
-    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
-    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
-    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
-    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
-    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
-    <col min="11530" max="11776" width="8.875" style="27"/>
-    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
-    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
-    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
-    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
-    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
-    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
-    <col min="11786" max="12032" width="8.875" style="27"/>
-    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
-    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
-    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
-    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
-    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
-    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
-    <col min="12042" max="12288" width="8.875" style="27"/>
-    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
-    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
-    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
-    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
-    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
-    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
-    <col min="12298" max="12544" width="8.875" style="27"/>
-    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
-    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
-    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
-    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
-    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
-    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
-    <col min="12554" max="12800" width="8.875" style="27"/>
-    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
-    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
-    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
-    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
-    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
-    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
-    <col min="12810" max="13056" width="8.875" style="27"/>
-    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
-    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
-    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
-    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
-    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
-    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
-    <col min="13066" max="13312" width="8.875" style="27"/>
-    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
-    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
-    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
-    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
-    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
-    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
-    <col min="13322" max="13568" width="8.875" style="27"/>
-    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
-    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
-    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
-    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
-    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
-    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
-    <col min="13578" max="13824" width="8.875" style="27"/>
-    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
-    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
-    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
-    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
-    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
-    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
-    <col min="13834" max="14080" width="8.875" style="27"/>
-    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
-    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
-    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
-    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
-    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
-    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
-    <col min="14090" max="14336" width="8.875" style="27"/>
-    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
-    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
-    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
-    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
-    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
-    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
-    <col min="14346" max="14592" width="8.875" style="27"/>
-    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
-    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
-    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
-    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
-    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
-    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
-    <col min="14602" max="14848" width="8.875" style="27"/>
-    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
-    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
-    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
-    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
-    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
-    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
-    <col min="14858" max="15104" width="8.875" style="27"/>
-    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
-    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
-    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
-    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
-    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
-    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
-    <col min="15114" max="15360" width="8.875" style="27"/>
-    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
-    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
-    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
-    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
-    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
-    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
-    <col min="15370" max="15616" width="8.875" style="27"/>
-    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
-    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
-    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
-    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
-    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
-    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
-    <col min="15626" max="15872" width="8.875" style="27"/>
-    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
-    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
-    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
-    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
-    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
-    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
-    <col min="15882" max="16128" width="8.875" style="27"/>
-    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
-    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
-    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
-    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
-    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
-    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
-    <col min="16138" max="16384" width="8.875" style="27"/>
+    <col min="10" max="256" width="8.875" style="27" customWidth="1"/>
+    <col min="257" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -15843,8 +15889,8 @@
       <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="137" t="s">
-        <v>453</v>
+      <c r="B7" s="132" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -15887,7 +15933,7 @@
       <c r="A11" s="37"/>
       <c r="B11" s="64"/>
       <c r="C11" s="51" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -15911,16 +15957,16 @@
         <v>77</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I12" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -15932,16 +15978,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I13" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.15">
@@ -15953,16 +15999,16 @@
         <v>133</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I14" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -15973,16 +16019,16 @@
         <v>106</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I15" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -15993,16 +16039,16 @@
         <v>122</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I16" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
@@ -16010,7 +16056,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>131</v>
+        <v>463</v>
       </c>
       <c r="D17" s="51" t="s">
         <v>116</v>
@@ -16019,16 +16065,16 @@
         <v>79</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I17" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -16039,16 +16085,16 @@
         <v>120</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I18" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
@@ -16060,16 +16106,16 @@
         <v>104</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I19" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -16080,16 +16126,16 @@
         <v>122</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I20" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -16107,16 +16153,16 @@
         <v>79</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I21" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -16127,16 +16173,16 @@
         <v>120</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I22" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
@@ -16147,16 +16193,16 @@
         <v>105</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I23" s="77">
-        <v>45203</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="42" x14ac:dyDescent="0.15">
@@ -16167,193 +16213,193 @@
         <v>122</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I24" s="77">
-        <v>45203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B25" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="132" t="s">
-        <v>457</v>
-      </c>
-      <c r="D25" s="132" t="s">
+      <c r="C25" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="51" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I25" s="77">
-        <v>45203</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
         <v>120</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I26" s="77">
-        <v>45203</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134" t="s">
-        <v>439</v>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
+        <v>431</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I27" s="77">
-        <v>45203</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="133" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="57" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="G28" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I28" s="77">
-        <v>45203</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B29" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="132" t="s">
-        <v>465</v>
-      </c>
-      <c r="D29" s="132" t="s">
-        <v>440</v>
-      </c>
-      <c r="E29" s="132" t="s">
+      <c r="C29" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="51" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="G29" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I29" s="77">
-        <v>45204</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B30" s="68"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57" t="s">
         <v>120</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="G30" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I30" s="77">
-        <v>45204</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134" t="s">
-        <v>441</v>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46" t="s">
+        <v>433</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="G31" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I31" s="77">
-        <v>45204</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="133" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="57" t="s">
         <v>122</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="G32" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I32" s="77">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B33" s="64" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>155</v>
@@ -16365,19 +16411,19 @@
         <v>263</v>
       </c>
       <c r="F33" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G33" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H33" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I33" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -16385,21 +16431,21 @@
         <v>120</v>
       </c>
       <c r="F34" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G34" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H34" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I34" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B35" s="64" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>260</v>
@@ -16409,19 +16455,19 @@
         <v>133</v>
       </c>
       <c r="F35" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G35" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H35" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I35" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
@@ -16429,21 +16475,21 @@
         <v>106</v>
       </c>
       <c r="F36" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G36" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H36" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I36" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B37" s="64" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>261</v>
@@ -16453,19 +16499,19 @@
         <v>133</v>
       </c>
       <c r="F37" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H37" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I37" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
@@ -16473,21 +16519,21 @@
         <v>106</v>
       </c>
       <c r="F38" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G38" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H38" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I38" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B39" s="64" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>262</v>
@@ -16497,19 +16543,19 @@
         <v>169</v>
       </c>
       <c r="F39" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H39" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I39" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B40" s="64"/>
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
@@ -16517,19 +16563,19 @@
         <v>133</v>
       </c>
       <c r="F40" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H40" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I40" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B41" s="68"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -16537,19 +16583,19 @@
         <v>106</v>
       </c>
       <c r="F41" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G41" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H41" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I41" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B42" s="68"/>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
@@ -16557,359 +16603,328 @@
         <v>122</v>
       </c>
       <c r="F42" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G42" s="117" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="H42" s="117" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I42" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B43" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="129" t="s">
+        <v>467</v>
+      </c>
+      <c r="D43" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="F43" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G43" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H43" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I43" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B44" s="64" t="s">
-        <v>436</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>446</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="133" t="s">
+      <c r="E43" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I43" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B44" s="68"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I44" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B45" s="68"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130" t="s">
+        <v>466</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I45" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B46" s="68"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I46" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="37"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G44" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H44" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I44" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>443</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51" t="s">
+      <c r="F47" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I47" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B48" s="68"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I48" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" s="129" t="s">
+        <v>468</v>
+      </c>
+      <c r="D49" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H45" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I45" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="73.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="123"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="F46" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G46" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H46" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I46" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B47" s="68"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G47" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H47" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I47" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B48" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H48" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I48" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B49" s="64" t="s">
-        <v>438</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G49" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H49" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I49" s="119">
-        <v>45204</v>
+      <c r="F49" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I49" s="77">
+        <v>45393</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B50" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="C50" s="132" t="s">
-        <v>448</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G50" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H50" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I50" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+      <c r="B50" s="68"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I50" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="F51" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H51" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I51" s="119">
-        <v>45204</v>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131" t="s">
+        <v>465</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I51" s="77">
+        <v>45393</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B52" s="68"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="57" t="s">
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="F52" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G52" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H52" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I52" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B53" s="135" t="s">
-        <v>449</v>
-      </c>
-      <c r="C53" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="132" t="s">
+      <c r="F52" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I52" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="129" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="132" t="s">
-        <v>276</v>
-      </c>
-      <c r="F53" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G53" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H53" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I53" s="119">
-        <v>45204</v>
+      <c r="E53" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I53" s="77">
+        <v>45393</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B54" s="135" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="132" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G54" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H54" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I54" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="135" t="s">
-        <v>451</v>
-      </c>
-      <c r="C55" s="132" t="s">
-        <v>466</v>
-      </c>
-      <c r="D55" s="133"/>
-      <c r="E55" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G55" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H55" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I55" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="136"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134" t="s">
-        <v>439</v>
-      </c>
-      <c r="F56" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G56" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H56" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I56" s="119">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B57" s="136"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="133" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G54" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I54" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="37"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131" t="s">
+        <v>465</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I55" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B56" s="68"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G57" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="H57" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="I57" s="119">
-        <v>45204</v>
-      </c>
+      <c r="F56" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="G56" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I56" s="77">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="68"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="77"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="72"/>
@@ -16973,7 +16988,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" s="38" t="s">
-        <v>240</v>
+        <v>484</v>
       </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
@@ -17046,7 +17061,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17697,7 +17712,7 @@
     <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="122"/>
       <c r="C11" s="121" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
@@ -17717,16 +17732,16 @@
         <v>116</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I12" s="77">
         <v>45134</v>
@@ -17736,21 +17751,21 @@
       <c r="B13" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="117" t="s">
         <v>400</v>
       </c>
       <c r="D13" s="117"/>
-      <c r="E13" s="129" t="s">
-        <v>413</v>
+      <c r="E13" s="117" t="s">
+        <v>408</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I13" s="77">
         <v>45134</v>
@@ -17761,20 +17776,20 @@
         <v>394</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="D14" s="117"/>
       <c r="E14" s="117" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I14" s="77">
         <v>45134</v>
@@ -17788,13 +17803,13 @@
         <v>120</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I15" s="77">
         <v>45134</v>
@@ -17808,13 +17823,13 @@
         <v>379</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I16" s="77">
         <v>45134</v>
@@ -17828,13 +17843,13 @@
         <v>378</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I17" s="77">
         <v>45134</v>
@@ -17844,17 +17859,17 @@
       <c r="B18" s="122"/>
       <c r="C18" s="120"/>
       <c r="D18" s="120"/>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="120" t="s">
         <v>396</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I18" s="77">
         <v>45134</v>
@@ -17864,17 +17879,17 @@
       <c r="B19" s="122"/>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="120" t="s">
         <v>395</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I19" s="77">
         <v>45134</v>
@@ -17884,17 +17899,17 @@
       <c r="B20" s="122"/>
       <c r="C20" s="120"/>
       <c r="D20" s="120"/>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="120" t="s">
         <v>397</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I20" s="77">
         <v>45134</v>
@@ -17904,17 +17919,17 @@
       <c r="B21" s="122"/>
       <c r="C21" s="121"/>
       <c r="D21" s="121"/>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="120" t="s">
         <v>398</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I21" s="77">
         <v>45134</v>
@@ -17928,13 +17943,13 @@
         <v>122</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I22" s="77">
         <v>45134</v>
@@ -17951,16 +17966,16 @@
         <v>116</v>
       </c>
       <c r="E23" s="117" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I23" s="77">
         <v>45134</v>
@@ -17970,21 +17985,21 @@
       <c r="B24" s="118" t="s">
         <v>367</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="117" t="s">
         <v>402</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="117" t="s">
         <v>393</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I24" s="77">
         <v>45134</v>
@@ -17995,20 +18010,20 @@
         <v>401</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="D25" s="117"/>
       <c r="E25" s="117" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I25" s="77">
         <v>45134</v>
@@ -18022,13 +18037,13 @@
         <v>120</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I26" s="77">
         <v>45134</v>
@@ -18042,13 +18057,13 @@
         <v>379</v>
       </c>
       <c r="F27" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>422</v>
-      </c>
       <c r="H27" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I27" s="77">
         <v>45134</v>
@@ -18058,17 +18073,17 @@
       <c r="B28" s="122"/>
       <c r="C28" s="121"/>
       <c r="D28" s="121"/>
-      <c r="E28" s="130" t="s">
+      <c r="E28" s="120" t="s">
         <v>378</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I28" s="77">
         <v>45134</v>
@@ -18078,17 +18093,17 @@
       <c r="B29" s="122"/>
       <c r="C29" s="120"/>
       <c r="D29" s="120"/>
-      <c r="E29" s="130" t="s">
+      <c r="E29" s="120" t="s">
         <v>396</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I29" s="77">
         <v>45134</v>
@@ -18099,16 +18114,16 @@
       <c r="C30" s="120"/>
       <c r="D30" s="120"/>
       <c r="E30" s="121" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I30" s="77">
         <v>45134</v>
@@ -18122,13 +18137,13 @@
         <v>122</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G31" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I31" s="77">
         <v>45134</v>
@@ -18145,16 +18160,16 @@
         <v>116</v>
       </c>
       <c r="E32" s="117" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G32" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I32" s="77">
         <v>45134</v>
@@ -18164,21 +18179,21 @@
       <c r="B33" s="118" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="117" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129" t="s">
+      <c r="D33" s="117"/>
+      <c r="E33" s="117" t="s">
         <v>393</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I33" s="77">
         <v>45134</v>
@@ -18186,23 +18201,23 @@
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B34" s="118" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H34" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I34" s="77">
         <v>45134</v>
@@ -18216,13 +18231,13 @@
         <v>120</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H35" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I35" s="77">
         <v>45134</v>
@@ -18232,17 +18247,17 @@
       <c r="B36" s="122"/>
       <c r="C36" s="121"/>
       <c r="D36" s="121"/>
-      <c r="E36" s="130" t="s">
+      <c r="E36" s="120" t="s">
         <v>378</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I36" s="77">
         <v>45134</v>
@@ -18254,16 +18269,16 @@
       <c r="C37" s="121"/>
       <c r="D37" s="121"/>
       <c r="E37" s="121" t="s">
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H37" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I37" s="77">
         <v>45134</v>
@@ -18277,13 +18292,13 @@
         <v>122</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I38" s="77">
         <v>45134</v>
@@ -18300,16 +18315,16 @@
         <v>116</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I39" s="77">
         <v>45134</v>
@@ -18320,21 +18335,21 @@
       <c r="B40" s="118" t="s">
         <v>371</v>
       </c>
-      <c r="C40" s="129" t="s">
-        <v>406</v>
+      <c r="C40" s="117" t="s">
+        <v>404</v>
       </c>
       <c r="D40" s="117"/>
-      <c r="E40" s="129" t="s">
+      <c r="E40" s="117" t="s">
         <v>393</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I40" s="77">
         <v>45134</v>
@@ -18343,23 +18358,23 @@
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A41" s="37"/>
       <c r="B41" s="118" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C41" s="117" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="D41" s="117"/>
       <c r="E41" s="117" t="s">
         <v>79</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I41" s="77">
         <v>45134</v>
@@ -18373,13 +18388,13 @@
         <v>120</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I42" s="77">
         <v>45134</v>
@@ -18389,17 +18404,17 @@
       <c r="B43" s="122"/>
       <c r="C43" s="121"/>
       <c r="D43" s="121"/>
-      <c r="E43" s="130" t="s">
+      <c r="E43" s="120" t="s">
         <v>378</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G43" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I43" s="77">
         <v>45134</v>
@@ -18410,16 +18425,16 @@
       <c r="C44" s="121"/>
       <c r="D44" s="121"/>
       <c r="E44" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="F44" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="F44" s="51" t="s">
-        <v>414</v>
-      </c>
       <c r="G44" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I44" s="77">
         <v>45134</v>
@@ -18433,13 +18448,13 @@
         <v>122</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I45" s="77">
         <v>45134</v>
@@ -18449,23 +18464,23 @@
       <c r="B46" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="129" t="s">
+      <c r="D46" s="117" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I46" s="77">
         <v>45134</v>
@@ -18473,23 +18488,23 @@
     </row>
     <row r="47" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B47" s="118" t="s">
-        <v>411</v>
-      </c>
-      <c r="C47" s="129" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="117" t="s">
         <v>402</v>
       </c>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129" t="s">
+      <c r="D47" s="117"/>
+      <c r="E47" s="117" t="s">
         <v>393</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G47" s="51" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H47" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I47" s="77">
         <v>45134</v>
@@ -18497,23 +18512,23 @@
     </row>
     <row r="48" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B48" s="118" t="s">
-        <v>410</v>
-      </c>
-      <c r="C48" s="129" t="s">
-        <v>427</v>
-      </c>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117" t="s">
         <v>79</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G48" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I48" s="77">
         <v>45134</v>
@@ -18521,19 +18536,19 @@
     </row>
     <row r="49" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B49" s="122"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130" t="s">
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120" t="s">
         <v>120</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G49" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I49" s="77">
         <v>45134</v>
@@ -18541,19 +18556,19 @@
     </row>
     <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B50" s="122"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130" t="s">
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120" t="s">
         <v>378</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I50" s="77">
         <v>45134</v>
@@ -18561,19 +18576,19 @@
     </row>
     <row r="51" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B51" s="122"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="130" t="s">
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="120" t="s">
         <v>395</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H51" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I51" s="77">
         <v>45134</v>
@@ -18581,19 +18596,19 @@
     </row>
     <row r="52" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B52" s="122"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="131" t="s">
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="121" t="s">
+        <v>407</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="H52" s="51" t="s">
         <v>412</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="G52" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>417</v>
       </c>
       <c r="I52" s="77">
         <v>45134</v>
@@ -18603,17 +18618,17 @@
       <c r="B53" s="122"/>
       <c r="C53" s="121"/>
       <c r="D53" s="121"/>
-      <c r="E53" s="130" t="s">
+      <c r="E53" s="120" t="s">
         <v>122</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G53" s="51" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H53" s="51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I53" s="77">
         <v>45134</v>
@@ -18621,9 +18636,9 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" s="122"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
@@ -18631,9 +18646,9 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B55" s="122"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="120"/>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
@@ -20304,38 +20319,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="137" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="135" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="143"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="141"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
@@ -20362,19 +20377,19 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B8" s="68" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G8" s="48">
         <v>45203</v>
@@ -20385,19 +20400,19 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B9" s="68" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G9" s="48">
         <v>45203</v>
@@ -20408,19 +20423,19 @@
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B10" s="68" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G10" s="48">
         <v>45203</v>
@@ -21196,7 +21211,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22929,9 +22944,9 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32:G43"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16:E23"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24524,12 +24539,1830 @@
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G32" sqref="G32:G43"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I13" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I14" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B15" s="68"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I15" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B16" s="68"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I16" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B18" s="68"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I18" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
+      <c r="A19" s="37"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I19" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B20" s="68"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I20" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A21" s="37"/>
+      <c r="B21" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I21" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B22" s="68"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I22" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="68"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I23" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B24" s="68"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I24" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="B25" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I25" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B26" s="68"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I26" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="68"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B28" s="68"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I28" s="77">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G29" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I29" s="77">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B30" s="68"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I30" s="77">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="68"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G31" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I31" s="77">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B32" s="68"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I32" s="77">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B33" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G33" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H33" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I33" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B34" s="64"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H34" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I34" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="B35" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H35" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I35" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B36" s="68"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G36" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H36" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I36" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="B37" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G37" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H37" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I37" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B38" s="68"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H38" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I38" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B39" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H39" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I39" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="B40" s="64"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G40" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H40" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I40" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B41" s="68"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G41" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H41" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I41" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B42" s="68"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G42" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H42" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I42" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B43" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G43" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H43" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I43" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B44" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G44" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H44" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I44" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H45" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I45" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="123"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="F46" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H46" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I46" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B47" s="68"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G47" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H47" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I47" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B48" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H48" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I48" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B49" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I49" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B50" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I50" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+      <c r="B51" s="68"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H51" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I51" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B52" s="68"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H52" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I52" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B53" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H53" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I53" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B54" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H54" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I54" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H55" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I55" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="68"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="F56" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G56" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H56" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I56" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B57" s="68"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="H57" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="I57" s="119">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="72"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="76"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G58">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G43" sqref="G32:G43"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26308,7 +28141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -27777,7 +29610,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -28227,37 +30060,55 @@
         <v>391</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="92"/>
     </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="91">
+        <v>45384</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -28592,6 +30443,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
@@ -28719,7 +30571,7 @@
         <v>83</v>
       </c>
       <c r="E11" s="86" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F11" s="83"/>
     </row>
@@ -28731,7 +30583,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="116" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="F12" s="83"/>
     </row>
